--- a/scripts/summary/data.xlsx
+++ b/scripts/summary/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_genji/genji/scripts/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC75C24-D611-6843-878D-B97F95F29FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FC276-68E7-504B-8DDE-A974776F7F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="60160" windowHeight="33380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outputのコピー" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>label</t>
     <phoneticPr fontId="18"/>
@@ -755,6 +755,10 @@
   </si>
   <si>
     <t>jk_front</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>koui_count</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1738,7 +1742,7 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1763,6 +1767,9 @@
       <c r="D1" t="s">
         <v>55</v>
       </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
       <c r="F1" t="s">
         <v>58</v>
       </c>
@@ -1805,6 +1812,9 @@
         <f t="shared" ref="D2:D12" si="0">C2+4</f>
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H2&amp;"/canvas/"&amp;F2</f>
+        <f t="shared" ref="J2:J42" si="3">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H2&amp;"/canvas/"&amp;F2</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/20</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1864,6 +1874,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
       <c r="F3">
         <v>35</v>
       </c>
@@ -1879,7 +1892,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H3&amp;"/canvas/"&amp;F3</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/35</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1892,7 +1905,7 @@
         <v>178</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R56" si="3">"80110V002"&amp;(S3-1)&amp;"0"&amp;TEXT(T3,"000")</f>
+        <f t="shared" ref="R3:R56" si="4">"80110V002"&amp;(S3-1)&amp;"0"&amp;TEXT(T3,"000")</f>
         <v>80110V00200053</v>
       </c>
       <c r="S3">
@@ -1905,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V56" si="4">"80110V002"&amp;(S3-1)&amp;"0"&amp;TEXT(T3-2,"000")</f>
+        <f t="shared" ref="V3:V56" si="5">"80110V002"&amp;(S3-1)&amp;"0"&amp;TEXT(T3-2,"000")</f>
         <v>80110V00200051</v>
       </c>
     </row>
@@ -1923,6 +1936,9 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
       <c r="F4">
         <v>60</v>
       </c>
@@ -1938,7 +1954,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H4&amp;"/canvas/"&amp;F4</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/60</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1951,7 +1967,7 @@
         <v>179</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00200117</v>
       </c>
       <c r="S4">
@@ -1964,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00200115</v>
       </c>
     </row>
@@ -1982,6 +1998,9 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
+      <c r="E5">
+        <v>46</v>
+      </c>
       <c r="F5">
         <v>68</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H5&amp;"/canvas/"&amp;F5</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/68</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2010,7 +2029,7 @@
         <v>180</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00200135</v>
       </c>
       <c r="S5">
@@ -2023,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00200133</v>
       </c>
     </row>
@@ -2041,6 +2060,9 @@
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
       <c r="F6">
         <v>93</v>
       </c>
@@ -2056,7 +2078,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H6&amp;"/canvas/"&amp;F6</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/93</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2069,7 +2091,7 @@
         <v>181</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00200199</v>
       </c>
       <c r="S6">
@@ -2082,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00200197</v>
       </c>
     </row>
@@ -2100,6 +2122,9 @@
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
       <c r="F7">
         <v>118</v>
       </c>
@@ -2115,7 +2140,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H7&amp;"/canvas/"&amp;F7</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/118</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2128,7 +2153,7 @@
         <v>182</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00200265</v>
       </c>
       <c r="S7">
@@ -2141,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00200263</v>
       </c>
     </row>
@@ -2159,6 +2184,9 @@
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
       <c r="F8">
         <v>136</v>
       </c>
@@ -2174,7 +2202,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H8&amp;"/canvas/"&amp;F8</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/136</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -2187,7 +2215,7 @@
         <v>183</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00200311</v>
       </c>
       <c r="S8">
@@ -2200,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00200309</v>
       </c>
     </row>
@@ -2218,6 +2246,9 @@
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
       <c r="F9">
         <v>152</v>
       </c>
@@ -2233,7 +2264,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H9&amp;"/canvas/"&amp;F9</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/152</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -2246,7 +2277,7 @@
         <v>184</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00200353</v>
       </c>
       <c r="S9">
@@ -2259,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00200351</v>
       </c>
     </row>
@@ -2277,6 +2308,9 @@
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
       <c r="F10">
         <v>159</v>
       </c>
@@ -2292,7 +2326,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H10&amp;"/canvas/"&amp;F10</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/159</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -2305,7 +2339,7 @@
         <v>185</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210017</v>
       </c>
       <c r="S10">
@@ -2318,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210015</v>
       </c>
     </row>
@@ -2336,6 +2370,9 @@
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
       <c r="F11">
         <v>184</v>
       </c>
@@ -2351,7 +2388,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H11&amp;"/canvas/"&amp;F11</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/184</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -2364,7 +2401,7 @@
         <v>186</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210083</v>
       </c>
       <c r="S11">
@@ -2377,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210081</v>
       </c>
     </row>
@@ -2395,6 +2432,9 @@
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
       <c r="F12">
         <v>211</v>
       </c>
@@ -2410,7 +2450,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H12&amp;"/canvas/"&amp;F12</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/211</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -2423,7 +2463,7 @@
         <v>187</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210153</v>
       </c>
       <c r="S12">
@@ -2436,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210151</v>
       </c>
     </row>
@@ -2454,6 +2494,9 @@
         <f>C13+4</f>
         <v>395</v>
       </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
       <c r="F13">
         <v>5</v>
       </c>
@@ -2469,7 +2512,7 @@
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H13&amp;"/canvas/"&amp;F13</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/5</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -2482,7 +2525,7 @@
         <v>188</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210161</v>
       </c>
       <c r="S13">
@@ -2495,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210159</v>
       </c>
     </row>
@@ -2510,25 +2553,28 @@
         <v>437</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D56" si="5">C14+4</f>
+        <f t="shared" ref="D14:D56" si="6">C14+4</f>
         <v>441</v>
+      </c>
+      <c r="E14">
+        <v>38</v>
       </c>
       <c r="F14">
         <v>28</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G56" si="6">F14+2</f>
+        <f t="shared" ref="G14:G56" si="7">F14+2</f>
         <v>30</v>
       </c>
       <c r="H14">
         <v>3437687</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ref="I14:I56" si="7">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H14&amp;"/manifest.json"</f>
+        <f t="shared" ref="I14:I56" si="8">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H14&amp;"/manifest.json"</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H14&amp;"/canvas/"&amp;F14</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/28</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -2541,7 +2587,7 @@
         <v>189</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210223</v>
       </c>
       <c r="S14">
@@ -2554,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210221</v>
       </c>
     </row>
@@ -2569,25 +2615,28 @@
         <v>479</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>483</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
       </c>
       <c r="F15">
         <v>49</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="H15">
         <v>3437687</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H15&amp;"/canvas/"&amp;F15</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/49</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -2600,7 +2649,7 @@
         <v>190</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210279</v>
       </c>
       <c r="S15">
@@ -2613,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210277</v>
       </c>
     </row>
@@ -2628,25 +2677,28 @@
         <v>515</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>519</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
       </c>
       <c r="F16">
         <v>67</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="H16">
         <v>3437687</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H16&amp;"/canvas/"&amp;F16</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/67</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -2659,7 +2711,7 @@
         <v>191</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210325</v>
       </c>
       <c r="S16">
@@ -2672,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210323</v>
       </c>
     </row>
@@ -2687,25 +2739,28 @@
         <v>543</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>547</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
       <c r="F17">
         <v>81</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="H17">
         <v>3437687</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H17&amp;"/canvas/"&amp;F17</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/81</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -2718,7 +2773,7 @@
         <v>192</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210359</v>
       </c>
       <c r="S17">
@@ -2731,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210357</v>
       </c>
     </row>
@@ -2746,25 +2801,28 @@
         <v>553</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>557</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
       </c>
       <c r="F18">
         <v>86</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="H18">
         <v>3437687</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H18&amp;"/canvas/"&amp;F18</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/86</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -2777,7 +2835,7 @@
         <v>193</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210369</v>
       </c>
       <c r="S18">
@@ -2790,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210367</v>
       </c>
     </row>
@@ -2805,25 +2863,28 @@
         <v>575</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>579</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
       </c>
       <c r="F19">
         <v>97</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="H19">
         <v>3437687</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H19&amp;"/canvas/"&amp;F19</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/97</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -2836,7 +2897,7 @@
         <v>194</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210397</v>
       </c>
       <c r="S19">
@@ -2849,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210395</v>
       </c>
     </row>
@@ -2864,25 +2925,28 @@
         <v>599</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>603</v>
+      </c>
+      <c r="E20">
+        <v>29</v>
       </c>
       <c r="F20">
         <v>109</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="H20">
         <v>3437687</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H20&amp;"/canvas/"&amp;F20</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/109</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -2895,7 +2959,7 @@
         <v>195</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210427</v>
       </c>
       <c r="S20">
@@ -2908,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210425</v>
       </c>
     </row>
@@ -2923,25 +2987,28 @@
         <v>635</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>639</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
       </c>
       <c r="F21">
         <v>127</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="H21">
         <v>3437687</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H21&amp;"/canvas/"&amp;F21</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/127</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -2954,7 +3021,7 @@
         <v>196</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00210469</v>
       </c>
       <c r="S21">
@@ -2967,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00210467</v>
       </c>
     </row>
@@ -2982,25 +3049,28 @@
         <v>661</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>665</v>
+      </c>
+      <c r="E22">
+        <v>48</v>
       </c>
       <c r="F22">
         <v>140</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="H22">
         <v>3437687</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H22&amp;"/canvas/"&amp;F22</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/140</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -3013,7 +3083,7 @@
         <v>197</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220017</v>
       </c>
       <c r="S22">
@@ -3026,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220015</v>
       </c>
     </row>
@@ -3041,25 +3111,28 @@
         <v>715</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>719</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
       </c>
       <c r="F23">
         <v>167</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>169</v>
       </c>
       <c r="H23">
         <v>3437687</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H23&amp;"/canvas/"&amp;F23</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/167</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -3072,7 +3145,7 @@
         <v>198</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220087</v>
       </c>
       <c r="S23">
@@ -3085,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220085</v>
       </c>
     </row>
@@ -3100,25 +3173,28 @@
         <v>759</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>763</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
       </c>
       <c r="F24">
         <v>189</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>191</v>
       </c>
       <c r="H24">
         <v>3437687</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H24&amp;"/canvas/"&amp;F24</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/189</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -3131,7 +3207,7 @@
         <v>199</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220143</v>
       </c>
       <c r="S24">
@@ -3144,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220141</v>
       </c>
     </row>
@@ -3159,25 +3235,28 @@
         <v>777</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>781</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
       </c>
       <c r="F25">
         <v>198</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="H25">
         <v>3437687</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H25&amp;"/canvas/"&amp;F25</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/198</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -3190,7 +3269,7 @@
         <v>200</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220165</v>
       </c>
       <c r="S25">
@@ -3203,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220163</v>
       </c>
     </row>
@@ -3218,25 +3297,28 @@
         <v>801</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>805</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H26">
         <v>3437688</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H26&amp;"/canvas/"&amp;F26</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/5</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -3249,7 +3331,7 @@
         <v>201</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220195</v>
       </c>
       <c r="S26">
@@ -3262,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220193</v>
       </c>
     </row>
@@ -3277,25 +3359,28 @@
         <v>825</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>829</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
       </c>
       <c r="F27">
         <v>17</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="H27">
         <v>3437688</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H27&amp;"/canvas/"&amp;F27</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/17</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -3308,7 +3393,7 @@
         <v>202</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220223</v>
       </c>
       <c r="S27">
@@ -3321,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220221</v>
       </c>
     </row>
@@ -3336,25 +3421,28 @@
         <v>851</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>855</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="H28">
         <v>3437688</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H28&amp;"/canvas/"&amp;F28</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/30</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -3367,7 +3455,7 @@
         <v>203</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220255</v>
       </c>
       <c r="S28">
@@ -3380,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220253</v>
       </c>
     </row>
@@ -3395,25 +3483,28 @@
         <v>859</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>863</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
       </c>
       <c r="F29">
         <v>34</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="H29">
         <v>3437688</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H29&amp;"/canvas/"&amp;F29</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/34</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -3426,7 +3517,7 @@
         <v>204</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220263</v>
       </c>
       <c r="S29">
@@ -3439,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220261</v>
       </c>
     </row>
@@ -3454,25 +3545,28 @@
         <v>881</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>885</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
       </c>
       <c r="F30">
         <v>45</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H30">
         <v>3437688</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H30&amp;"/canvas/"&amp;F30</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/45</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -3485,7 +3579,7 @@
         <v>205</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220289</v>
       </c>
       <c r="S30">
@@ -3498,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220287</v>
       </c>
     </row>
@@ -3513,25 +3607,28 @@
         <v>913</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>917</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
       </c>
       <c r="F31">
         <v>61</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="H31">
         <v>3437688</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H31&amp;"/canvas/"&amp;F31</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/61</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -3544,7 +3641,7 @@
         <v>206</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220327</v>
       </c>
       <c r="S31">
@@ -3557,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220325</v>
       </c>
     </row>
@@ -3572,25 +3669,28 @@
         <v>931</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>935</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
       </c>
       <c r="F32">
         <v>70</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="H32">
         <v>3437688</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H32&amp;"/canvas/"&amp;F32</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/70</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -3603,7 +3703,7 @@
         <v>207</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220349</v>
       </c>
       <c r="S32">
@@ -3616,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220347</v>
       </c>
     </row>
@@ -3631,25 +3731,28 @@
         <v>971</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>975</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
       </c>
       <c r="F33">
         <v>90</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="H33">
         <v>3437688</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H33&amp;"/canvas/"&amp;F33</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/90</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -3662,7 +3765,7 @@
         <v>208</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220403</v>
       </c>
       <c r="S33">
@@ -3675,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220401</v>
       </c>
     </row>
@@ -3690,25 +3793,28 @@
         <v>993</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>997</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
       </c>
       <c r="F34">
         <v>101</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="H34">
         <v>3437688</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H34&amp;"/canvas/"&amp;F34</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/101</v>
       </c>
       <c r="K34" s="3" t="s">
@@ -3721,7 +3827,7 @@
         <v>209</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00220431</v>
       </c>
       <c r="S34">
@@ -3734,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00220429</v>
       </c>
     </row>
@@ -3749,25 +3855,28 @@
         <v>1021</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1025</v>
+      </c>
+      <c r="E35">
+        <v>96</v>
       </c>
       <c r="F35">
         <v>115</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="H35">
         <v>3437688</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H35&amp;"/canvas/"&amp;F35</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/115</v>
       </c>
       <c r="K35" s="3" t="s">
@@ -3780,7 +3889,7 @@
         <v>210</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230017</v>
       </c>
       <c r="S35">
@@ -3793,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230015</v>
       </c>
     </row>
@@ -3808,25 +3917,28 @@
         <v>1121</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1125</v>
+      </c>
+      <c r="E36">
+        <v>97</v>
       </c>
       <c r="F36">
         <v>165</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>167</v>
       </c>
       <c r="H36">
         <v>3437688</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H36&amp;"/canvas/"&amp;F36</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/165</v>
       </c>
       <c r="K36" s="3" t="s">
@@ -3839,7 +3951,7 @@
         <v>211</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230153</v>
       </c>
       <c r="S36">
@@ -3852,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230151</v>
       </c>
     </row>
@@ -3867,25 +3979,28 @@
         <v>1223</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1227</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H37">
         <v>3437689</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H37&amp;"/canvas/"&amp;F37</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/5</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -3898,7 +4013,7 @@
         <v>212</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230289</v>
       </c>
       <c r="S37">
@@ -3911,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230287</v>
       </c>
     </row>
@@ -3926,25 +4041,28 @@
         <v>1265</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1269</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
       </c>
       <c r="F38">
         <v>26</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="H38">
         <v>3437689</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H38&amp;"/canvas/"&amp;F38</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/26</v>
       </c>
       <c r="K38" s="3" t="s">
@@ -3957,7 +4075,7 @@
         <v>213</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230345</v>
       </c>
       <c r="S38">
@@ -3970,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230343</v>
       </c>
     </row>
@@ -3985,25 +4103,28 @@
         <v>1287</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1291</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
       </c>
       <c r="F39">
         <v>37</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="H39">
         <v>3437689</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H39&amp;"/canvas/"&amp;F39</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/37</v>
       </c>
       <c r="K39" s="3" t="s">
@@ -4016,7 +4137,7 @@
         <v>214</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230373</v>
       </c>
       <c r="S39">
@@ -4029,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230371</v>
       </c>
     </row>
@@ -4044,25 +4165,28 @@
         <v>1305</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1309</v>
+      </c>
+      <c r="E40">
+        <v>67</v>
       </c>
       <c r="F40">
         <v>46</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="H40">
         <v>3437689</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H40&amp;"/canvas/"&amp;F40</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/46</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -4075,7 +4199,7 @@
         <v>215</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230395</v>
       </c>
       <c r="S40">
@@ -4088,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230393</v>
       </c>
     </row>
@@ -4103,25 +4227,28 @@
         <v>1377</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1381</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
       </c>
       <c r="F41">
         <v>82</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="H41">
         <v>3437689</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H41&amp;"/canvas/"&amp;F41</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/82</v>
       </c>
       <c r="K41" s="3" t="s">
@@ -4134,7 +4261,7 @@
         <v>216</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230493</v>
       </c>
       <c r="S41">
@@ -4147,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230491</v>
       </c>
     </row>
@@ -4162,25 +4289,28 @@
         <v>1399</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1403</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
       </c>
       <c r="F42">
         <v>93</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="H42">
         <v>3437689</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H42&amp;"/canvas/"&amp;F42</f>
+        <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/93</v>
       </c>
       <c r="K42" s="3" t="s">
@@ -4193,7 +4323,7 @@
         <v>217</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00230521</v>
       </c>
       <c r="S42">
@@ -4206,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00230519</v>
       </c>
     </row>
@@ -4236,25 +4366,28 @@
         <v>1425</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1429</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
       </c>
       <c r="F44">
         <v>106</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="H44">
         <v>3437689</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H44&amp;"/canvas/"&amp;F44</f>
+        <f t="shared" ref="J44:J56" si="9">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H44&amp;"/canvas/"&amp;F44</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/106</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -4267,7 +4400,7 @@
         <v>218</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240017</v>
       </c>
       <c r="S44">
@@ -4280,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240015</v>
       </c>
     </row>
@@ -4295,25 +4428,28 @@
         <v>1443</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1447</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
       </c>
       <c r="F45">
         <v>115</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="H45">
         <v>3437689</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H45&amp;"/canvas/"&amp;F45</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/115</v>
       </c>
       <c r="K45" s="3" t="s">
@@ -4326,7 +4462,7 @@
         <v>219</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240039</v>
       </c>
       <c r="S45">
@@ -4339,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240037</v>
       </c>
     </row>
@@ -4354,25 +4490,28 @@
         <v>1459</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1463</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
       </c>
       <c r="F46">
         <v>123</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="H46">
         <v>3437689</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H46&amp;"/canvas/"&amp;F46</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/123</v>
       </c>
       <c r="K46" s="3" t="s">
@@ -4385,7 +4524,7 @@
         <v>220</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240059</v>
       </c>
       <c r="S46">
@@ -4398,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240057</v>
       </c>
     </row>
@@ -4413,25 +4552,28 @@
         <v>1503</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1507</v>
+      </c>
+      <c r="E47">
+        <v>36</v>
       </c>
       <c r="F47">
         <v>145</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="H47">
         <v>3437689</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H47&amp;"/canvas/"&amp;F47</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/145</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -4444,7 +4586,7 @@
         <v>221</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240117</v>
       </c>
       <c r="S47">
@@ -4457,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240115</v>
       </c>
     </row>
@@ -4472,25 +4614,28 @@
         <v>1543</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1547</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
       </c>
       <c r="F48">
         <v>165</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>167</v>
       </c>
       <c r="H48">
         <v>3437689</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H48&amp;"/canvas/"&amp;F48</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/165</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -4503,7 +4648,7 @@
         <v>222</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240169</v>
       </c>
       <c r="S48">
@@ -4516,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240167</v>
       </c>
     </row>
@@ -4531,25 +4676,28 @@
         <v>1583</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1587</v>
+      </c>
+      <c r="E49">
+        <v>84</v>
       </c>
       <c r="F49">
         <v>185</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>187</v>
       </c>
       <c r="H49">
         <v>3437689</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H49&amp;"/canvas/"&amp;F49</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/185</v>
       </c>
       <c r="K49" s="3" t="s">
@@ -4562,7 +4710,7 @@
         <v>223</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240223</v>
       </c>
       <c r="S49">
@@ -4575,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="V49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240221</v>
       </c>
     </row>
@@ -4590,25 +4738,28 @@
         <v>1673</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1677</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H50">
         <v>3437690</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H50&amp;"/canvas/"&amp;F50</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/5</v>
       </c>
       <c r="K50" s="3" t="s">
@@ -4621,7 +4772,7 @@
         <v>224</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240345</v>
       </c>
       <c r="S50">
@@ -4634,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240343</v>
       </c>
     </row>
@@ -4649,25 +4800,28 @@
         <v>1697</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1701</v>
+      </c>
+      <c r="E51">
+        <v>88</v>
       </c>
       <c r="F51">
         <v>17</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="H51">
         <v>3437690</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H51&amp;"/canvas/"&amp;F51</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/17</v>
       </c>
       <c r="K51" s="3" t="s">
@@ -4680,7 +4834,7 @@
         <v>225</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00240373</v>
       </c>
       <c r="S51">
@@ -4693,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00240371</v>
       </c>
     </row>
@@ -4708,25 +4862,28 @@
         <v>1789</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1793</v>
+      </c>
+      <c r="E52">
+        <v>60</v>
       </c>
       <c r="F52">
         <v>63</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="H52">
         <v>3437690</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H52&amp;"/canvas/"&amp;F52</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/63</v>
       </c>
       <c r="K52" s="3" t="s">
@@ -4739,7 +4896,7 @@
         <v>226</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00250017</v>
       </c>
       <c r="S52">
@@ -4752,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00250015</v>
       </c>
     </row>
@@ -4767,25 +4924,28 @@
         <v>1855</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1859</v>
+      </c>
+      <c r="E53">
+        <v>67</v>
       </c>
       <c r="F53">
         <v>96</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="H53">
         <v>3437690</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H53&amp;"/canvas/"&amp;F53</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/96</v>
       </c>
       <c r="K53" s="3" t="s">
@@ -4798,7 +4958,7 @@
         <v>227</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00250105</v>
       </c>
       <c r="S53">
@@ -4811,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00250103</v>
       </c>
     </row>
@@ -4826,25 +4986,28 @@
         <v>1927</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1931</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
       </c>
       <c r="F54">
         <v>132</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
       <c r="H54">
         <v>3437690</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H54&amp;"/canvas/"&amp;F54</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/132</v>
       </c>
       <c r="K54" s="3" t="s">
@@ -4857,7 +5020,7 @@
         <v>228</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00250201</v>
       </c>
       <c r="S54">
@@ -4870,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00250199</v>
       </c>
     </row>
@@ -4885,25 +5048,28 @@
         <v>1985</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1989</v>
+      </c>
+      <c r="E55">
+        <v>62</v>
       </c>
       <c r="F55">
         <v>161</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="H55">
         <v>3437690</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H55&amp;"/canvas/"&amp;F55</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/161</v>
       </c>
       <c r="K55" s="3" t="s">
@@ -4916,7 +5082,7 @@
         <v>229</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00250279</v>
       </c>
       <c r="S55">
@@ -4929,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00250277</v>
       </c>
     </row>
@@ -4944,25 +5110,28 @@
         <v>2051</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2055</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
       </c>
       <c r="F56">
         <v>194</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>196</v>
       </c>
       <c r="H56">
         <v>3437690</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H56&amp;"/canvas/"&amp;F56</f>
+        <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/194</v>
       </c>
       <c r="K56" s="3" t="s">
@@ -4975,7 +5144,7 @@
         <v>230</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80110V00250373</v>
       </c>
       <c r="S56">
@@ -4988,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80110V00250371</v>
       </c>
     </row>

--- a/scripts/summary/data.xlsx
+++ b/scripts/summary/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_genji/genji/scripts/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FC276-68E7-504B-8DDE-A974776F7F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4102FEB2-0191-FF4B-B4DE-C699C4F6BF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>label</t>
     <phoneticPr fontId="18"/>
@@ -411,171 +411,6 @@
     <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/01.xml</t>
   </si>
   <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/02.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/03.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/04.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/05.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/06.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/07.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/08.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/09.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/10.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/11.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/12.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/13.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/14.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/15.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/16.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/17.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/18.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/19.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/20.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/21.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/22.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/23.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/24.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/25.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/26.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/27.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/28.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/29.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/30.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/31.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/32.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/33.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/34.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/35.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/36.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/37.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/38.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/41.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/42.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/43.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/44.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/45.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/46.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/47.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/48.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/49.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/50.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/51.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/52.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/53.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/54.xml</t>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/39.xml, https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/40.xml</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/55.xml</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/56.xml</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>雲隠</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -760,6 +595,337 @@
   <si>
     <t>koui_count</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>thumbnail</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/eeea85020b8f2f84392fdbae7e7460f7f0e44e28.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/707d9c58014ca5f13e94210694e944026cae887d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2ff5ad52ad67276e6309bf522852dffeb5ae4a65.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/05b2af61a788209c52093049ebcacc26928f1b16.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ad936d2a2b341652cb1ab7e25f65cafb67ef021d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/75f8470d741d1c825d32c8bd958dbebd3e0f6dfa.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a6007d38d10c305c456419ba4ca2ccb4356a768e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8b5bc65b81a208f3c3c7712d942d1054a71c0271.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b0a891a07b68bfdf6c407c423356d7595dcd357e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d820f92edbf1fac934254e039d52e3b3a4794763.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b1f48e3a8967f8184b33d7c20deba15dde4b0508.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b0d53228d1a99f21f7d6fe7c3f0b597884cf146b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d3c55f7743874d1c6d7501b732587fa0a565f8ca.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ecb674898ebb6d9eae28aad9a59a9816612ba770.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6135de6961e457949587d4ec15b7a7f450d0ce8c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/08c0b5ddb47a13b8b38ed6d132425f04b8f1bd90.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/30c83a6cc316f8a5141300402eabae777391eb08.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/955586a06ad6c479f9774391052043531466e4a2.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3a53e40b0982b4fedaa1049564e7253526076864.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/21acc54c731964590959b762929dc422d730b287.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/79b1d4def22dfa63b5a67010cb86907e0357a275.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/97183b640dd05a166e2909ecb4f3f4cf94c99dd3.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7b859f6f1c3a903073355d2b485ea65941c1ecd5.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2104441c95bce9ded4251bfa3077f3f3ebf22a3f.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d1ba7504e89aab1e6b6823e1a7cb30194938a7cc.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2b0bf9802bc4bb2f5916620120a8cadc2cece164.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/521b34c724f1a4fc8822dc4058bfca2e9586ece6.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d7461862d950021c055c59db1442d8623044969c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ef874413df4e9476d1c63164e9b245c8b4aa2b34.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/674bbb48c8d91b305159e77504b47f2c19763691.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/164d37dbda1adca42e0f99eecda183a742face89.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b6ab72b7ef891c99cad007ac6d6e54f4ef6abbe6.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a7a68aa156f41d5e63b59f4e8a28001b763b19df.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fbc0fe0b72884b0f465ca41addaf8a6ed7a5d8d3.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ef5db134d259dfcb50215d2c1ed82a757685cf8a.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/251bfc634c9fdac884ef8f8d0bfb16cb809c307e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/62eb77bc67f5d1d5ad7bee5d4d81adf97763aaec.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f31a2a922c28c5e34261eb51b193316b2b0cd46e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a13de06fa2b31c3d633fe5c8be8d52e42c5bf6df.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fb85b9f7c773cb9c9974d1ac448aff2adef0d21b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0ffc31d972b1e527913d62f91363e4f6322d2819.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9b6cecc92eadf73736457951c7ac55f5f05a52f0.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/76ac4cf77c30e7a70af3501377f5b8d5b151d975.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5cd3e1a332a4c699b8500f9b563463358522fe71.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6b3b755c5f053769540e7a41047c93ee240fc11e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/44e4b97c43e8f0a7f59803d87c09da13e385260c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8a87a3cc23fc2c5e3568975e6d68809741086428.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2dab7f062f1dcbdb33833b090315caabeafd01d1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/11690e1ac57987c9a83bc1e99d716695e15631d6.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4e81f425f9f1b695b0d9e2c89180612adc88f9f4.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/04f3ced686904e50547f9d4f3f646aca8020b9d1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2ef4aebdfa630028a45d15f1cf66f424ad9e6fe8.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9d06a29cf15f506f12ba6f8e98e57be05f041f02.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c86b0a0d077836b4449fa05ef1dbb22e5305269a.jpg</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5017_9759.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5018_9760.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5019_9762.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5020_11254.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5021_11107.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5022_11633.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5023_10175.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5024_11085.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5025_11636.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5026_11638.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5027_11270.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5028_11650.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5029_10177.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5030_10219.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5031_10221.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5032_10223.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5033_11020.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5034_11648.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5035_11652.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5036_11906.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5037_11910.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5038_10199.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5039_11657.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5040_11669.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5041_12171.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5042_11844.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5043_10262.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5044_10287.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5045_11024.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5046_12198.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5047_12202.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5048_12252.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5049_14830.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5050_14552.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5051_14567.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5052_13280.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5053_12173.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5054_10249.xml,</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5055_10251.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5056_13291.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5057_14554.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5058_14558.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5059_11969.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5060_15278.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5061_15280.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5062_15326.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5063_15328.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5064_15564.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5065_15348.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5066_16261.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5067_16265.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5068_17944.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5069_16428.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5070_16484.xml</t>
+  </si>
+  <si>
+    <t>https://genji.dl.itc.u-tokyo.ac.jp/data/tei/yosano/5071_15350.xml</t>
   </si>
 </sst>
 </file>
@@ -927,18 +1093,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FF708284"/>
       <name val="Ricty Diminished"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1239,7 +1402,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,25 +1529,22 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1412,7 +1572,6 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1741,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1750,13 +1909,14 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="10" width="44.28515625" customWidth="1"/>
-    <col min="11" max="11" width="49.42578125" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="89" customWidth="1"/>
+    <col min="12" max="12" width="81" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1768,7 +1928,7 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
         <v>58</v>
@@ -1791,11 +1951,14 @@
       <c r="L1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
-        <v>231</v>
+      <c r="Q1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" t="s">
+        <v>178</v>
       </c>
       <c r="V1" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="23">
@@ -1829,35 +1992,38 @@
         <f t="shared" ref="I2:I12" si="2">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H2&amp;"/manifest.json"</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J42" si="3">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H2&amp;"/canvas/"&amp;F2</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" t="s">
-        <v>177</v>
-      </c>
-      <c r="R2" t="str">
-        <f>"80110V002"&amp;(S2-1)&amp;"0"&amp;TEXT(T2,"000")</f>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>"80110V002"&amp;(R2-1)&amp;"0"&amp;TEXT(S2,"000")</f>
         <v>80110V00200017</v>
       </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
       <c r="S2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="T2">
-        <v>17</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="str">
-        <f>"80110V002"&amp;(S2-1)&amp;"0"&amp;TEXT(T2-2,"000")</f>
+        <v>1</v>
+      </c>
+      <c r="U2" t="str">
+        <f>"80110V002"&amp;(R2-1)&amp;"0"&amp;TEXT(S2-2,"000")</f>
         <v>80110V00200015</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="23">
@@ -1891,35 +2057,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/35</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>178</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R56" si="4">"80110V002"&amp;(S3-1)&amp;"0"&amp;TEXT(T3,"000")</f>
+      <c r="L3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q56" si="4">"80110V002"&amp;(R3-1)&amp;"0"&amp;TEXT(S3,"000")</f>
         <v>80110V00200053</v>
       </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
       <c r="S3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="T3">
-        <v>53</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V56" si="5">"80110V002"&amp;(S3-1)&amp;"0"&amp;TEXT(T3-2,"000")</f>
+        <v>1</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U56" si="5">"80110V002"&amp;(R3-1)&amp;"0"&amp;TEXT(S3-2,"000")</f>
         <v>80110V00200051</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="23">
@@ -1953,35 +2122,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/60</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" t="str">
+      <c r="L4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="4"/>
         <v>80110V00200117</v>
       </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
       <c r="S4">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="T4">
-        <v>117</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="str">
+        <v>1</v>
+      </c>
+      <c r="U4" t="str">
         <f t="shared" si="5"/>
         <v>80110V00200115</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="23">
@@ -2015,35 +2187,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/68</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R5" t="str">
+      <c r="L5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="4"/>
         <v>80110V00200135</v>
       </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
       <c r="S5">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="T5">
-        <v>135</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="str">
+        <v>1</v>
+      </c>
+      <c r="U5" t="str">
         <f t="shared" si="5"/>
         <v>80110V00200133</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="23">
@@ -2077,35 +2252,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/93</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>181</v>
-      </c>
-      <c r="R6" t="str">
+      <c r="L6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="4"/>
         <v>80110V00200199</v>
       </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
       <c r="S6">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="T6">
-        <v>199</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" t="str">
+        <v>1</v>
+      </c>
+      <c r="U6" t="str">
         <f t="shared" si="5"/>
         <v>80110V00200197</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="23">
@@ -2139,35 +2317,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/118</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>182</v>
-      </c>
-      <c r="R7" t="str">
+      <c r="L7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" si="4"/>
         <v>80110V00200265</v>
       </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
       <c r="S7">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="T7">
-        <v>265</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="str">
+        <v>1</v>
+      </c>
+      <c r="U7" t="str">
         <f t="shared" si="5"/>
         <v>80110V00200263</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="23">
@@ -2201,35 +2382,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/136</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>183</v>
-      </c>
-      <c r="R8" t="str">
+      <c r="L8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="4"/>
         <v>80110V00200311</v>
       </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
       <c r="S8">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="T8">
-        <v>311</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="str">
+        <v>1</v>
+      </c>
+      <c r="U8" t="str">
         <f t="shared" si="5"/>
         <v>80110V00200309</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="23">
@@ -2263,35 +2447,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/152</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" t="str">
+      <c r="L9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="4"/>
         <v>80110V00200353</v>
       </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
       <c r="S9">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="T9">
-        <v>353</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9" t="str">
+        <v>1</v>
+      </c>
+      <c r="U9" t="str">
         <f t="shared" si="5"/>
         <v>80110V00200351</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="23">
@@ -2325,35 +2512,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/159</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L10" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>185</v>
-      </c>
-      <c r="R10" t="str">
+      <c r="L10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210017</v>
       </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
       <c r="S10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="T10">
-        <v>17</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="str">
+        <v>1</v>
+      </c>
+      <c r="U10" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210015</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="23">
@@ -2387,35 +2577,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/184</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L11" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>186</v>
-      </c>
-      <c r="R11" t="str">
+      <c r="L11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210083</v>
       </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
       <c r="S11">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="T11">
-        <v>83</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" t="str">
+        <v>1</v>
+      </c>
+      <c r="U11" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210081</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="23">
@@ -2449,35 +2642,38 @@
         <f t="shared" si="2"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/manifest.json</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437686/canvas/211</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>187</v>
-      </c>
-      <c r="R12" t="str">
+      <c r="L12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210153</v>
       </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
       <c r="S12">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="T12">
-        <v>153</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" t="str">
+        <v>1</v>
+      </c>
+      <c r="U12" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210151</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="23">
@@ -2511,35 +2707,38 @@
         <f>"https://www.dl.ndl.go.jp/api/iiif/"&amp;H13&amp;"/manifest.json"</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/5</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>188</v>
-      </c>
-      <c r="R13" t="str">
+      <c r="L13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210161</v>
       </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
       <c r="S13">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="T13">
-        <v>161</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="str">
+        <v>1</v>
+      </c>
+      <c r="U13" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210159</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="23">
@@ -2573,35 +2772,38 @@
         <f t="shared" ref="I14:I56" si="8">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H14&amp;"/manifest.json"</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/28</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>189</v>
-      </c>
-      <c r="R14" t="str">
+      <c r="L14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210223</v>
       </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
       <c r="S14">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="T14">
-        <v>223</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14" t="str">
+        <v>1</v>
+      </c>
+      <c r="U14" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210221</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="23">
@@ -2635,35 +2837,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/49</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>190</v>
-      </c>
-      <c r="R15" t="str">
+      <c r="L15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210279</v>
       </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
       <c r="S15">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="T15">
-        <v>279</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="str">
+        <v>1</v>
+      </c>
+      <c r="U15" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210277</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="23">
@@ -2697,35 +2902,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="J16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/67</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>191</v>
-      </c>
-      <c r="R16" t="str">
+      <c r="L16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210325</v>
       </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
       <c r="S16">
-        <v>2</v>
+        <v>325</v>
       </c>
       <c r="T16">
-        <v>325</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="str">
+        <v>1</v>
+      </c>
+      <c r="U16" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210323</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="23">
@@ -2759,35 +2967,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="J17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/81</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>192</v>
-      </c>
-      <c r="R17" t="str">
+      <c r="L17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210359</v>
       </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
       <c r="S17">
-        <v>2</v>
+        <v>359</v>
       </c>
       <c r="T17">
-        <v>359</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="str">
+        <v>1</v>
+      </c>
+      <c r="U17" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210357</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="23">
@@ -2821,35 +3032,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="J18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/86</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>193</v>
-      </c>
-      <c r="R18" t="str">
+      <c r="L18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210369</v>
       </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
       <c r="S18">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="T18">
-        <v>369</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="str">
+        <v>1</v>
+      </c>
+      <c r="U18" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210367</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="23">
@@ -2883,35 +3097,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="J19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/97</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L19" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>194</v>
-      </c>
-      <c r="R19" t="str">
+      <c r="L19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210397</v>
       </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
       <c r="S19">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="T19">
-        <v>397</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="str">
+        <v>1</v>
+      </c>
+      <c r="U19" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210395</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="23">
@@ -2945,35 +3162,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="J20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/109</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>195</v>
-      </c>
-      <c r="R20" t="str">
+      <c r="L20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210427</v>
       </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
       <c r="S20">
-        <v>2</v>
+        <v>427</v>
       </c>
       <c r="T20">
-        <v>427</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="str">
+        <v>1</v>
+      </c>
+      <c r="U20" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210425</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="23">
@@ -3007,35 +3227,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="J21" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/127</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L21" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>196</v>
-      </c>
-      <c r="R21" t="str">
+      <c r="L21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P21" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" si="4"/>
         <v>80110V00210469</v>
       </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
       <c r="S21">
-        <v>2</v>
+        <v>469</v>
       </c>
       <c r="T21">
-        <v>469</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="str">
+        <v>1</v>
+      </c>
+      <c r="U21" t="str">
         <f t="shared" si="5"/>
         <v>80110V00210467</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="23">
@@ -3069,35 +3292,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="J22" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/140</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L22" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>197</v>
-      </c>
-      <c r="R22" t="str">
+      <c r="L22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220017</v>
       </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
       <c r="S22">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="T22">
-        <v>17</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="str">
+        <v>1</v>
+      </c>
+      <c r="U22" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220015</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="23">
@@ -3131,35 +3357,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="J23" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/167</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>198</v>
-      </c>
-      <c r="R23" t="str">
+      <c r="L23" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220087</v>
       </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
       <c r="S23">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="T23">
-        <v>87</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="str">
+        <v>1</v>
+      </c>
+      <c r="U23" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220085</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="23">
@@ -3193,35 +3422,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="J24" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/189</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L24" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>199</v>
-      </c>
-      <c r="R24" t="str">
+      <c r="L24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220143</v>
       </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
       <c r="S24">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="T24">
-        <v>143</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="str">
+        <v>1</v>
+      </c>
+      <c r="U24" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220141</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="23">
@@ -3255,35 +3487,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/manifest.json</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="J25" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437687/canvas/198</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L25" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>200</v>
-      </c>
-      <c r="R25" t="str">
+      <c r="L25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220165</v>
       </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
       <c r="S25">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="T25">
-        <v>165</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="str">
+        <v>1</v>
+      </c>
+      <c r="U25" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220163</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="23">
@@ -3317,35 +3552,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="J26" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/5</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L26" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>201</v>
-      </c>
-      <c r="R26" t="str">
+      <c r="L26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220195</v>
       </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
       <c r="S26">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="T26">
-        <v>195</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="str">
+        <v>1</v>
+      </c>
+      <c r="U26" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220193</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="23">
@@ -3379,35 +3617,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="J27" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/17</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L27" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>202</v>
-      </c>
-      <c r="R27" t="str">
+      <c r="L27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220223</v>
       </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
       <c r="S27">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="T27">
-        <v>223</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="str">
+        <v>1</v>
+      </c>
+      <c r="U27" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220221</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="23">
@@ -3441,35 +3682,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="J28" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/30</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L28" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>203</v>
-      </c>
-      <c r="R28" t="str">
+      <c r="L28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220255</v>
       </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
       <c r="S28">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="T28">
-        <v>255</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="str">
+        <v>1</v>
+      </c>
+      <c r="U28" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220253</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="23">
@@ -3503,35 +3747,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="J29" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/34</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L29" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>204</v>
-      </c>
-      <c r="R29" t="str">
+      <c r="L29" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220263</v>
       </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
       <c r="S29">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="T29">
-        <v>263</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29" t="str">
+        <v>1</v>
+      </c>
+      <c r="U29" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220261</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="23">
@@ -3565,35 +3812,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="J30" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/45</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>205</v>
-      </c>
-      <c r="R30" t="str">
+      <c r="L30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220289</v>
       </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
       <c r="S30">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="T30">
-        <v>289</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="str">
+        <v>1</v>
+      </c>
+      <c r="U30" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220287</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="23">
@@ -3627,35 +3877,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J31" s="2" t="str">
+      <c r="J31" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/61</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L31" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>206</v>
-      </c>
-      <c r="R31" t="str">
+      <c r="L31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P31" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220327</v>
       </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
       <c r="S31">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="T31">
-        <v>327</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31" t="str">
+        <v>1</v>
+      </c>
+      <c r="U31" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220325</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="23">
@@ -3689,35 +3942,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J32" s="2" t="str">
+      <c r="J32" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/70</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L32" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>207</v>
-      </c>
-      <c r="R32" t="str">
+      <c r="L32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220349</v>
       </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
       <c r="S32">
-        <v>3</v>
+        <v>349</v>
       </c>
       <c r="T32">
-        <v>349</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32" t="str">
+        <v>1</v>
+      </c>
+      <c r="U32" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220347</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="23">
@@ -3751,35 +4007,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J33" s="2" t="str">
+      <c r="J33" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/90</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>208</v>
-      </c>
-      <c r="R33" t="str">
+      <c r="L33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P33" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220403</v>
       </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
       <c r="S33">
-        <v>3</v>
+        <v>403</v>
       </c>
       <c r="T33">
-        <v>403</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33" t="str">
+        <v>1</v>
+      </c>
+      <c r="U33" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220401</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="23">
@@ -3813,42 +4072,45 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="J34" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/101</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>209</v>
-      </c>
-      <c r="R34" t="str">
+      <c r="L34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" si="4"/>
         <v>80110V00220431</v>
       </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
       <c r="S34">
-        <v>3</v>
+        <v>431</v>
       </c>
       <c r="T34">
-        <v>431</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34" t="str">
+        <v>1</v>
+      </c>
+      <c r="U34" t="str">
         <f t="shared" si="5"/>
         <v>80110V00220429</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="23">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C35">
@@ -3875,42 +4137,45 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J35" s="2" t="str">
+      <c r="J35" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/115</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L35" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>210</v>
-      </c>
-      <c r="R35" t="str">
+      <c r="L35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P35" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230017</v>
       </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
       <c r="S35">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="T35">
-        <v>17</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35" t="str">
+        <v>1</v>
+      </c>
+      <c r="U35" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230015</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="23">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C36">
@@ -3937,35 +4202,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/manifest.json</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="J36" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437688/canvas/165</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L36" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>211</v>
-      </c>
-      <c r="R36" t="str">
+      <c r="L36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230153</v>
       </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
       <c r="S36">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="T36">
-        <v>153</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36" t="str">
+        <v>1</v>
+      </c>
+      <c r="U36" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230151</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="23">
@@ -3999,35 +4267,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J37" s="2" t="str">
+      <c r="J37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/5</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L37" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>212</v>
-      </c>
-      <c r="R37" t="str">
+      <c r="L37" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P37" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230289</v>
       </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
       <c r="S37">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="T37">
-        <v>289</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37" t="str">
+        <v>1</v>
+      </c>
+      <c r="U37" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230287</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="23">
@@ -4061,35 +4332,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="J38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/26</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>213</v>
-      </c>
-      <c r="R38" t="str">
+      <c r="L38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230345</v>
       </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
       <c r="S38">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="T38">
-        <v>345</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38" t="str">
+        <v>1</v>
+      </c>
+      <c r="U38" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230343</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="23">
@@ -4123,35 +4397,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J39" s="2" t="str">
+      <c r="J39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/37</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L39" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>214</v>
-      </c>
-      <c r="R39" t="str">
+      <c r="L39" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P39" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q39" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230373</v>
       </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
       <c r="S39">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="T39">
-        <v>373</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39" t="str">
+        <v>1</v>
+      </c>
+      <c r="U39" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230371</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="23">
@@ -4185,35 +4462,41 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J40" s="2" t="str">
+      <c r="J40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/46</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L40" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>215</v>
-      </c>
-      <c r="R40" t="str">
+      <c r="L40" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="s">
+        <v>273</v>
+      </c>
+      <c r="P40" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230395</v>
       </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
       <c r="S40">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="T40">
-        <v>395</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40" t="str">
+        <v>1</v>
+      </c>
+      <c r="U40" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230393</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="23">
@@ -4247,35 +4530,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J41" s="2" t="str">
+      <c r="J41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/82</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L41" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>216</v>
-      </c>
-      <c r="R41" t="str">
+      <c r="L41" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="P41" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230493</v>
       </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
       <c r="S41">
-        <v>4</v>
+        <v>493</v>
       </c>
       <c r="T41">
-        <v>493</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41" t="str">
+        <v>1</v>
+      </c>
+      <c r="U41" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230491</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="23">
@@ -4309,50 +4595,53 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J42" s="2" t="str">
+      <c r="J42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/93</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L42" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>217</v>
-      </c>
-      <c r="R42" t="str">
+      <c r="L42" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P42" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q42" t="str">
         <f t="shared" si="4"/>
         <v>80110V00230521</v>
       </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
       <c r="S42">
-        <v>4</v>
+        <v>521</v>
       </c>
       <c r="T42">
-        <v>521</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42" t="str">
+        <v>1</v>
+      </c>
+      <c r="U42" t="str">
         <f t="shared" si="5"/>
         <v>80110V00230519</v>
       </c>
+      <c r="V42" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="43" spans="1:22" ht="23">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L43" t="s">
-        <v>159</v>
+      <c r="L43" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="23">
@@ -4386,35 +4675,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J44" s="2" t="str">
+      <c r="J44" s="1" t="str">
         <f t="shared" ref="J44:J56" si="9">"https://www.dl.ndl.go.jp/api/iiif/"&amp;H44&amp;"/canvas/"&amp;F44</f>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/106</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>218</v>
-      </c>
-      <c r="R44" t="str">
+      <c r="L44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="P44" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240017</v>
       </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
       <c r="S44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T44">
-        <v>17</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44" t="str">
+        <v>1</v>
+      </c>
+      <c r="U44" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240015</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="23">
@@ -4448,35 +4740,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J45" s="2" t="str">
+      <c r="J45" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/115</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>219</v>
-      </c>
-      <c r="R45" t="str">
+      <c r="L45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P45" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q45" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240039</v>
       </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
       <c r="S45">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="T45">
-        <v>39</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45" t="str">
+        <v>1</v>
+      </c>
+      <c r="U45" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240037</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="23">
@@ -4510,35 +4805,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="J46" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/123</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>220</v>
-      </c>
-      <c r="R46" t="str">
+      <c r="L46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P46" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q46" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240059</v>
       </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
       <c r="S46">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="T46">
-        <v>59</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46" t="str">
+        <v>1</v>
+      </c>
+      <c r="U46" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240057</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="23">
@@ -4572,35 +4870,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="J47" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/145</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L47" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>221</v>
-      </c>
-      <c r="R47" t="str">
+      <c r="L47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P47" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q47" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240117</v>
       </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
       <c r="S47">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="T47">
-        <v>117</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47" t="str">
+        <v>1</v>
+      </c>
+      <c r="U47" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240115</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="23">
@@ -4634,35 +4935,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J48" s="2" t="str">
+      <c r="J48" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/165</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L48" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>222</v>
-      </c>
-      <c r="R48" t="str">
+      <c r="L48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="P48" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q48" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240169</v>
       </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
       <c r="S48">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="T48">
-        <v>169</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48" t="str">
+        <v>1</v>
+      </c>
+      <c r="U48" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240167</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="23">
@@ -4696,35 +5000,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/manifest.json</v>
       </c>
-      <c r="J49" s="2" t="str">
+      <c r="J49" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437689/canvas/185</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L49" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>223</v>
-      </c>
-      <c r="R49" t="str">
+      <c r="L49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240223</v>
       </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
       <c r="S49">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="T49">
-        <v>223</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49" t="str">
+        <v>1</v>
+      </c>
+      <c r="U49" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240221</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="23">
@@ -4758,35 +5065,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J50" s="2" t="str">
+      <c r="J50" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/5</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L50" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>224</v>
-      </c>
-      <c r="R50" t="str">
+      <c r="L50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="P50" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q50" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240345</v>
       </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
       <c r="S50">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="T50">
-        <v>345</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50" t="str">
+        <v>1</v>
+      </c>
+      <c r="U50" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240343</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="23">
@@ -4820,35 +5130,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J51" s="2" t="str">
+      <c r="J51" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/17</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L51" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>225</v>
-      </c>
-      <c r="R51" t="str">
+      <c r="L51" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P51" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q51" t="str">
         <f t="shared" si="4"/>
         <v>80110V00240373</v>
       </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
       <c r="S51">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="T51">
-        <v>373</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51" t="str">
+        <v>1</v>
+      </c>
+      <c r="U51" t="str">
         <f t="shared" si="5"/>
         <v>80110V00240371</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="23">
@@ -4882,35 +5195,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J52" s="2" t="str">
+      <c r="J52" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/63</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L52" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>226</v>
-      </c>
-      <c r="R52" t="str">
+      <c r="L52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="P52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q52" t="str">
         <f t="shared" si="4"/>
         <v>80110V00250017</v>
       </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
       <c r="S52">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T52">
-        <v>17</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52" t="str">
+        <v>1</v>
+      </c>
+      <c r="U52" t="str">
         <f t="shared" si="5"/>
         <v>80110V00250015</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="23">
@@ -4944,35 +5260,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J53" s="2" t="str">
+      <c r="J53" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/96</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L53" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>227</v>
-      </c>
-      <c r="R53" t="str">
+      <c r="L53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q53" t="str">
         <f t="shared" si="4"/>
         <v>80110V00250105</v>
       </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
       <c r="S53">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="T53">
-        <v>105</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53" t="str">
+        <v>1</v>
+      </c>
+      <c r="U53" t="str">
         <f t="shared" si="5"/>
         <v>80110V00250103</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="23">
@@ -5006,35 +5325,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="J54" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/132</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L54" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>228</v>
-      </c>
-      <c r="R54" t="str">
+      <c r="L54" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P54" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q54" t="str">
         <f t="shared" si="4"/>
         <v>80110V00250201</v>
       </c>
+      <c r="R54">
+        <v>6</v>
+      </c>
       <c r="S54">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="T54">
-        <v>201</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54" t="str">
+        <v>1</v>
+      </c>
+      <c r="U54" t="str">
         <f t="shared" si="5"/>
         <v>80110V00250199</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="23">
@@ -5068,35 +5390,38 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="J55" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/161</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>229</v>
-      </c>
-      <c r="R55" t="str">
+      <c r="L55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="P55" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q55" t="str">
         <f t="shared" si="4"/>
         <v>80110V00250279</v>
       </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
       <c r="S55">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="T55">
-        <v>279</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55" t="str">
+        <v>1</v>
+      </c>
+      <c r="U55" t="str">
         <f t="shared" si="5"/>
         <v>80110V00250277</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="23">
@@ -5130,43 +5455,42 @@
         <f t="shared" si="8"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/manifest.json</v>
       </c>
-      <c r="J56" s="2" t="str">
+      <c r="J56" s="1" t="str">
         <f t="shared" si="9"/>
         <v>https://www.dl.ndl.go.jp/api/iiif/3437690/canvas/194</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>230</v>
-      </c>
-      <c r="R56" t="str">
+      <c r="L56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P56" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q56" t="str">
         <f t="shared" si="4"/>
         <v>80110V00250373</v>
       </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
       <c r="S56">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="T56">
-        <v>373</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56" t="str">
+        <v>1</v>
+      </c>
+      <c r="U56" t="str">
         <f t="shared" si="5"/>
         <v>80110V00250371</v>
       </c>
+      <c r="V56" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <hyperlinks>
-    <hyperlink ref="L55" r:id="rId1" xr:uid="{C23774A7-F808-764E-841D-DBCEA00D1FD9}"/>
-    <hyperlink ref="L56" r:id="rId2" xr:uid="{6DD32E85-5AE8-504A-A5B8-AE8E8172FAEA}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>